--- a/docs/solverComp.xlsx
+++ b/docs/solverComp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cometmail-my.sharepoint.com/personal/jrw200000_utdallas_edu/Documents/Fall2023/MECH6v29_MPC/Project/MECH6V29_MPC_FinalProject/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{8DD356A9-3D6A-4A07-A54B-B8C84F557AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82072E4D-921B-4581-9810-9FB390D10FE7}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{8DD356A9-3D6A-4A07-A54B-B8C84F557AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1149B7CD-F882-4366-88E7-B1820E2C5B2B}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{1AACF029-F8AD-416C-817D-ECA3D405CEFF}"/>
+    <workbookView xWindow="13125" yWindow="3345" windowWidth="21600" windowHeight="11295" xr2:uid="{1AACF029-F8AD-416C-817D-ECA3D405CEFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>FMINCON</t>
   </si>
@@ -50,9 +47,6 @@
     <t>Min Y - Unstructured</t>
   </si>
   <si>
-    <t>Min Y - Final Only</t>
-  </si>
-  <si>
     <t>Min Y - Ref X and theta</t>
   </si>
   <si>
@@ -68,10 +62,22 @@
     <t>Note: This is not meant to be a reproducable set of results. It is mearly for a simple comparrision for demonstration purposes.</t>
   </si>
   <si>
-    <t>Min X with -180</t>
-  </si>
-  <si>
     <t>Min X with +180</t>
+  </si>
+  <si>
+    <t>Min X with special ref</t>
+  </si>
+  <si>
+    <t>Min Y - Final</t>
+  </si>
+  <si>
+    <t>Max Y - Ref X theta</t>
+  </si>
+  <si>
+    <t>Max Y - Final</t>
+  </si>
+  <si>
+    <t>Min X - Final</t>
   </si>
 </sst>
 </file>
@@ -124,6 +130,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAE248D-4AB1-4C9A-8ADE-9B3F661E63E0}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,19 +446,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>243.79</v>
@@ -459,7 +466,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>235.91</v>
@@ -470,7 +477,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>438.67</v>
@@ -481,28 +488,73 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1077.5999999999999</v>
+      </c>
+      <c r="C5">
+        <v>164.58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>395.71</v>
+      </c>
+      <c r="C6">
+        <v>191.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>344.52</v>
+      </c>
+      <c r="C7">
+        <v>165.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>331.71</v>
+      </c>
+      <c r="C8">
+        <v>140.49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>665.82</v>
+      </c>
+      <c r="C9">
+        <v>85.492000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
